--- a/biology/Histoire de la zoologie et de la botanique/Carsten_Niebuhr/Carsten_Niebuhr.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Carsten_Niebuhr/Carsten_Niebuhr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carsten Niebuhr, né à Lüdingsworth, Cuxhaven le 17 mars 1733 et mort à Meldorf (Duché de Holstein) le 26 avril 1815, est un explorateur et géographe qui consacra sa carrière au service du Danemark. Il est un élève de Tobias Mayer[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carsten Niebuhr, né à Lüdingsworth, Cuxhaven le 17 mars 1733 et mort à Meldorf (Duché de Holstein) le 26 avril 1815, est un explorateur et géographe qui consacra sa carrière au service du Danemark. Il est un élève de Tobias Mayer.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de fermier et peu éduqué, il est paysan pendant plusieurs années. Il s'intéresse cependant aux mathématiques et parvient à suivre des cours pour devenir géomètre-expert. En 1760, un de ses maîtres lui propose de se joindre à l’équipe d’exploration scientifique que le roi Frédéric V de Danemark se prépare à envoyer en Égypte, en Arabie et en Syrie.
 Afin de se qualifier pour ce travail, il étudie assidûment pendant les dix-huit mois qui précèdent le départ de l’expédition les mathématiques, la cartographie et l'astronomie avec Tobias Mayer (1723-1762), un des plus grands astronomes du XVIIIe siècle, auteur de la méthode de détermination de la longitude par la distance à la lune. Les observations de Niebuhr durant l'expédition en Arabie prouvent que l'utilisation de cette méthode par les marins est à la fois précise et pratique.
@@ -550,18 +564,55 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Niebuhr est un observateur précis et attentionné. Doué de l'instinct du savant et d'une grande probité morale, il enregistre les résultats de ses observations avec une conscience rigoureuse et un grand désir de représenter la réalité. Les copies qu'il fait à Persépolis de l'écriture cunéiforme, par exemple, sont si précises qu'elles sont utilisées par la suite pour la déchiffrer.
 Ses œuvres ont longtemps été des classiques de la géographie, de l'ethnologie et de l'archéologie de la plupart des lieux qu'il parcourt en Arabie.
-Le premier volume, Beschreibung von Arabien[2], est publié à Copenhague en 1772, le gouvernement danois ayant financé les abondantes illustrations.
-En 1774 et 1778 suivent deux autres volumes, Reisebeschreibung von Arabien und anderen umliegenden Ländern[3].
+Le premier volume, Beschreibung von Arabien, est publié à Copenhague en 1772, le gouvernement danois ayant financé les abondantes illustrations.
+En 1774 et 1778 suivent deux autres volumes, Reisebeschreibung von Arabien und anderen umliegenden Ländern.
 En 1837, longtemps après sa mort, le quatrième volume est publié par sa fille.
 Il entreprend aussi de publier les travaux de son ami Pehr Forsskål, le naturaliste de l'expédition, sous le titre Descriptiones animalium, Flora Aegyptiaco-Arabica et Icones rerum naturalium (Copenhague, 1775-1776). Il contribue également à la revue du Deutsches Museum, notamment avec des articles sur l'intérieur de l'Afrique et sur la condition politique et militaire de l'Empire ottoman.
-Traductions et biographies
-Des traductions françaises et hollandaises de ses récits sont publiées durant sa vie, et une traduction résumée en anglais des trois premiers volumes de ses œuvres est publiée à Edimbourg en 1792. Son fils Barthold publie à Kiel en 1817 un court récit de sa vie, traduit en anglais en 1838.
-En 2012, les éditions de l'Aire (Suisse) publient une traduction en français moderne de son œuvre : Voyages en Arabie heureuse et autres pays de l'Orient[4].
-L'écrivain danois Thorkild Hansen publie en 1962 un récit romancé du voyage de l'expédition, traduit en français en 1981 sous le titre La mort en Arabie.Une expédition danoise, 1761-1767[5]  et réédité en 1994 et 2002 par Actes Sud[6].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carsten_Niebuhr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carsten_Niebuhr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions et biographies</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des traductions françaises et hollandaises de ses récits sont publiées durant sa vie, et une traduction résumée en anglais des trois premiers volumes de ses œuvres est publiée à Edimbourg en 1792. Son fils Barthold publie à Kiel en 1817 un court récit de sa vie, traduit en anglais en 1838.
+En 2012, les éditions de l'Aire (Suisse) publient une traduction en français moderne de son œuvre : Voyages en Arabie heureuse et autres pays de l'Orient.
+L'écrivain danois Thorkild Hansen publie en 1962 un récit romancé du voyage de l'expédition, traduit en français en 1981 sous le titre La mort en Arabie.Une expédition danoise, 1761-1767  et réédité en 1994 et 2002 par Actes Sud.
 </t>
         </is>
       </c>
